--- a/biology/Zoologie/Bythinella/Bythinella.xlsx
+++ b/biology/Zoologie/Bythinella/Bythinella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bythinella est un genre de très petits escargots d'eau douce, des mollusques gastéropodes aquatiques de la famille des Amnicolidae, selon la taxonomie de Bouchet et Rocroi 2005[1]
-Depuis 2006, l'espèce type est Bythinella viridis[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bythinella est un genre de très petits escargots d'eau douce, des mollusques gastéropodes aquatiques de la famille des Amnicolidae, selon la taxonomie de Bouchet et Rocroi 2005
+Depuis 2006, l'espèce type est Bythinella viridis.
 </t>
         </is>
       </c>
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des espèces établie par Moquin-Tandon
-En 1855, Moquin-Tandon décrit le genre Bythinie et il classe Bythinella les dix espèces et vingt et une variétés suivantes, présentant la caractéristique commune d'avoir un opercule cochléiforme à noyau excentrique[3] :
-Autres espèces
-Par ordre chronologique de description[9]:
+          <t>Liste des espèces établie par Moquin-Tandon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1855, Moquin-Tandon décrit le genre Bythinie et il classe Bythinella les dix espèces et vingt et une variétés suivantes, présentant la caractéristique commune d'avoir un opercule cochléiforme à noyau excentrique :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bythinella</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bythinella</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Par ordre chronologique de description:
 Bythinella opaca opaca (M. von Gallenstein, 1848)
 Bythinella rufescens rufescens (Küster, 1852)
 Bythinella charpentieri (Roth, 1855)
@@ -527,7 +579,7 @@
 Bythinella dunkeri (Frauenfeld, 1857)
 Bythinella pyrenaica (Bourguignat, 1861)
 Bythinella pannonica (Frauenfeld, 1865)
-Bythinella carinulata (Drouet, 1867)[10]
+Bythinella carinulata (Drouet, 1867)
 Bythinella eutrepha (Paladilhe, 1867)
 Bythinella ligurica (Paladilhe, 1867)
 Bythinella cylindracea (Paladilhe, 1869)
